--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1634672.884001723</v>
+        <v>1592849.102332716</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397789.0360093931</v>
+        <v>231017.1396772835</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075576</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8001242.362952736</v>
+        <v>8001242.362952734</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.0343424855785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>40.61938961819902</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>196.9826481283071</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.1894793532452</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>231.9219126530998</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>175.0426595591497</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>33.60023339142363</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>84.18473223323868</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>44.34629629416121</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.97975510385932</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>47.93810132931788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.891794301794698</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>287.0450277042817</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>373.4935860344563</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.5204780657949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>38.20100533369732</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>187.9216174196134</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>112.219003277124</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>152.9376416850984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>202.3552397702137</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>102.5057318506307</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>77.50776027739582</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>50.56806592571588</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>139.4042112361043</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2216,7 +2216,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,52 +2241,52 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>115.1165353722833</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>214.5288682289405</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.783909619145502</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>263.6203297354152</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>120.9673892710046</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>85.01043530101144</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>54.21297465918771</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>124.0795465577652</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>157.6725793509329</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29.38391736390409</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>149.7232056537448</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>92.96858446130993</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>283.3990567582399</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>303.0090314087153</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>25.3101294723929</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
@@ -2927,13 +2927,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>114.5146521661423</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>23.81257899873754</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.60419956430029</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>129.5840487974527</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.3041234569037</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.1513196436839</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>122.2749743008632</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>121.9580774704049</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6088509072827</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>66.25503485839013</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>105.9637990594094</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
@@ -3404,7 +3404,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>114.7943575370069</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>4.812045700447308</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>253.7114272736141</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>62.51438142407012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.9448648482395</v>
       </c>
       <c r="H39" t="n">
-        <v>91.6867458199809</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>92.4784086463653</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.5954749790535</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>140.2076828273227</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>49.12195918209023</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>15.69638162143966</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>113.3786705230755</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>43.0321874990911</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>266.5241668318961</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>59.08128201480609</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,13 +4058,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>114.7196543111938</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4106,13 +4106,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>22.44088855367314</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>251.4440815283292</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>234.7731431109335</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>219.3158324895849</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
         <v>485.167420504237</v>
       </c>
       <c r="X2" t="n">
-        <v>241.7186438601369</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>648.4405950311615</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C3" t="n">
-        <v>473.9875657500345</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D3" t="n">
-        <v>325.0531560887832</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E3" t="n">
-        <v>165.8157010833278</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>648.4405950311615</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>648.4405950311615</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>648.4405950311615</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>648.4405950311615</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>648.4405950311615</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.4405950311615</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.0600686093459</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C6" t="n">
-        <v>259.0600686093459</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>110.1256589480946</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>110.1256589480946</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.1256589480946</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.1256589480946</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.1256589480946</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>259.0600686093459</v>
+        <v>729.7925972751818</v>
       </c>
       <c r="X6" t="n">
-        <v>259.0600686093459</v>
+        <v>521.941097069649</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.0600686093459</v>
+        <v>521.941097069649</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6192102101089</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946997</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279.5233881080029</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>105.0703588268759</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y9" t="n">
-        <v>279.5233881080029</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>895.7492552379747</v>
       </c>
       <c r="C11" t="n">
-        <v>1975.787305141805</v>
+        <v>895.7492552379747</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.521606535054</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E11" t="n">
-        <v>1231.73335393681</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F11" t="n">
-        <v>820.7474491472024</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4756816300872</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>72.12707230412849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D12" t="n">
-        <v>298.7453260127371</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="E12" t="n">
-        <v>139.5078710072816</v>
+        <v>348.8860194538779</v>
       </c>
       <c r="F12" t="n">
-        <v>46.89499644164432</v>
+        <v>202.3514614807628</v>
       </c>
       <c r="G12" t="n">
-        <v>46.89499644164432</v>
+        <v>202.3514614807628</v>
       </c>
       <c r="H12" t="n">
-        <v>46.89499644164432</v>
+        <v>95.3173210167129</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.89499644164432</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="C13" t="n">
-        <v>46.89499644164432</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="D13" t="n">
-        <v>46.89499644164432</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="E13" t="n">
-        <v>46.89499644164432</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="F13" t="n">
-        <v>46.89499644164432</v>
+        <v>51.83620280709351</v>
       </c>
       <c r="G13" t="n">
-        <v>46.89499644164432</v>
+        <v>51.83620280709351</v>
       </c>
       <c r="H13" t="n">
-        <v>46.89499644164432</v>
+        <v>51.83620280709351</v>
       </c>
       <c r="I13" t="n">
         <v>46.89499644164432</v>
@@ -5220,31 +5220,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826212</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T13" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U13" t="n">
-        <v>46.89499644164432</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V13" t="n">
-        <v>46.89499644164432</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="W13" t="n">
-        <v>46.89499644164432</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="X13" t="n">
-        <v>46.89499644164432</v>
+        <v>198.7261503050039</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.89499644164432</v>
+        <v>198.7261503050039</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>871.140567173964</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="C14" t="n">
-        <v>502.1780502335523</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="D14" t="n">
-        <v>212.2335778049849</v>
+        <v>754.5098542872558</v>
       </c>
       <c r="E14" t="n">
-        <v>212.2335778049849</v>
+        <v>754.5098542872558</v>
       </c>
       <c r="F14" t="n">
-        <v>212.2335778049849</v>
+        <v>754.5098542872558</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T14" t="n">
-        <v>1941.571949851771</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U14" t="n">
-        <v>1941.571949851771</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V14" t="n">
-        <v>1610.5090625082</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W14" t="n">
-        <v>1257.740407238086</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="X14" t="n">
-        <v>1257.740407238086</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="Y14" t="n">
-        <v>1257.740407238086</v>
+        <v>1112.775552894006</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>839.9448105435223</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C15" t="n">
-        <v>665.4917812623953</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>339.050568953251</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>192.516010980136</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1056.511576412174</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1568.236257700347</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1969.948689296674</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5384,25 +5384,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2084.763385350902</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U15" t="n">
-        <v>1856.582921005059</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V15" t="n">
-        <v>1621.430812773317</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.193456045115</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X15" t="n">
-        <v>1159.341955839582</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y15" t="n">
-        <v>951.5816570746283</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5460,28 +5460,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2115.893810642661</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="D17" t="n">
         <v>1757.628112035911</v>
@@ -5515,16 +5515,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991246</v>
+        <v>2231.397293519465</v>
       </c>
       <c r="T17" t="n">
-        <v>2270.376276991246</v>
+        <v>2011.414534151043</v>
       </c>
       <c r="U17" t="n">
-        <v>2270.376276991246</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="V17" t="n">
-        <v>2270.376276991246</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="W17" t="n">
-        <v>2270.376276991246</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.376276991246</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.893810642661</v>
+        <v>1757.628112035911</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072816</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F18" t="n">
-        <v>114.6107419524668</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1639.131396183828</v>
       </c>
       <c r="O18" t="n">
         <v>1887.88481026779</v>
@@ -5627,19 +5627,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1719.130598160332</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1483.978489928589</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1229.741133200388</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1021.889632994855</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>814.129334229901</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>438.8323905084034</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>438.8323905084034</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>290.9192969260102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>290.9192969260102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>290.9192969260102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I19" t="n">
         <v>46.89499644164432</v>
@@ -5703,22 +5703,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V19" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W19" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1011.932809118479</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C20" t="n">
-        <v>1011.932809118479</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D20" t="n">
-        <v>1011.932809118479</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E20" t="n">
-        <v>1011.932809118479</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5785,19 +5785,19 @@
         <v>2124.767062713795</v>
       </c>
       <c r="U20" t="n">
-        <v>2124.767062713795</v>
+        <v>1983.954728131871</v>
       </c>
       <c r="V20" t="n">
-        <v>2124.767062713795</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="W20" t="n">
-        <v>1771.99840744368</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="X20" t="n">
-        <v>1398.532649182601</v>
+        <v>1652.8918407883</v>
       </c>
       <c r="Y20" t="n">
-        <v>1398.532649182601</v>
+        <v>1262.752508812489</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D21" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E21" t="n">
-        <v>139.5078710072816</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
         <v>46.89499644164432</v>
@@ -5831,25 +5831,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922997</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L21" t="n">
-        <v>573.2835173449994</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.511576412174</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1568.236257700347</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>1969.948689296674</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2275.355263568887</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5864,19 +5864,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
         <v>46.89499644164432</v>
@@ -5913,7 +5913,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5934,28 +5934,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>491.4892447774382</v>
       </c>
       <c r="S22" t="n">
-        <v>391.0727469424309</v>
+        <v>274.7934182835589</v>
       </c>
       <c r="T22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>643.5267671165072</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="C23" t="n">
-        <v>643.5267671165072</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D23" t="n">
-        <v>377.243605767603</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E23" t="n">
-        <v>377.243605767603</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F23" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -5989,16 +5989,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6022,19 +6022,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2090.963399967084</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>1759.900512623513</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1407.131857353399</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X23" t="n">
-        <v>1033.666099092319</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y23" t="n">
-        <v>643.5267671165072</v>
+        <v>1991.981166812102</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.1634746939509</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>746.7104454128239</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>597.7760357515726</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>438.5385807461172</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
         <v>46.89499644164432</v>
@@ -6071,49 +6071,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583286</v>
+        <v>506.0277099972428</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>989.2557690644172</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1500.980450352591</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1902.692881948917</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2208.09945622113</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2222.560539990292</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1994.38007564445</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1759.227967412707</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1504.990610684506</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1297.139110478973</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.378811714019</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.6555769054703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C25" t="n">
-        <v>101.6555769054703</v>
+        <v>521.899446869632</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6555769054703</v>
+        <v>521.899446869632</v>
       </c>
       <c r="E25" t="n">
-        <v>101.6555769054703</v>
+        <v>521.899446869632</v>
       </c>
       <c r="F25" t="n">
-        <v>101.6555769054703</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G25" t="n">
-        <v>101.6555769054703</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H25" t="n">
-        <v>101.6555769054703</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
         <v>46.89499644164432</v>
@@ -6174,25 +6174,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W25" t="n">
-        <v>101.6555769054703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X25" t="n">
-        <v>101.6555769054703</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.6555769054703</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1185.109116778414</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="C26" t="n">
-        <v>816.1465998380024</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="D26" t="n">
-        <v>457.8809012312519</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E26" t="n">
-        <v>457.8809012312519</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6253,25 +6253,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>1961.848288818348</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>1961.848288818348</v>
+        <v>2111.111045323637</v>
       </c>
       <c r="V26" t="n">
-        <v>1961.848288818348</v>
+        <v>1780.048157980066</v>
       </c>
       <c r="W26" t="n">
-        <v>1961.848288818348</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="X26" t="n">
-        <v>1961.848288818348</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="Y26" t="n">
-        <v>1571.708956842536</v>
+        <v>1427.279502709952</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>843.8100588399052</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>669.3570295587782</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>520.4226198975269</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>361.1851648920714</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>214.6506069189564</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>76.57572105164846</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>76.57572105164846</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6308,49 +6308,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>232.2520930628877</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>601.8033081713716</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832902</v>
+        <v>1085.031367238546</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1596.756048526719</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>1998.468480123046</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>1012.025395859973</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>513.86091236428</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>344.9247294363731</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E28" t="n">
         <v>46.89499644164432</v>
@@ -6411,25 +6411,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>456.5330121699014</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>456.5330121699014</v>
+        <v>513.86091236428</v>
       </c>
       <c r="U28" t="n">
-        <v>456.5330121699014</v>
+        <v>513.86091236428</v>
       </c>
       <c r="V28" t="n">
-        <v>456.5330121699014</v>
+        <v>513.86091236428</v>
       </c>
       <c r="W28" t="n">
-        <v>456.5330121699014</v>
+        <v>513.86091236428</v>
       </c>
       <c r="X28" t="n">
-        <v>228.543461271884</v>
+        <v>513.86091236428</v>
       </c>
       <c r="Y28" t="n">
-        <v>228.543461271884</v>
+        <v>513.86091236428</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1605.381326747981</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C29" t="n">
-        <v>1605.381326747981</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D29" t="n">
-        <v>1247.11562814123</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E29" t="n">
-        <v>1247.11562814123</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F29" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6502,13 +6502,13 @@
         <v>2344.749822082217</v>
       </c>
       <c r="W29" t="n">
-        <v>1991.981166812103</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X29" t="n">
-        <v>1991.981166812103</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="Y29" t="n">
-        <v>1991.981166812103</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>876.3701216833169</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>701.91709240219</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>552.9826827409387</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>393.7452277354832</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>247.2106697623682</v>
       </c>
       <c r="G30" t="n">
         <v>221.6448824165167</v>
@@ -6548,19 +6548,19 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N30" t="n">
-        <v>1533.364070505576</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6575,19 +6575,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1923.529830251457</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1688.377722019714</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1252.345757468339</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>1044.585458703385</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>240.0860467948698</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>70.94810654137922</v>
       </c>
       <c r="H31" t="n">
         <v>46.89499644164432</v>
@@ -6654,19 +6654,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>590.9966546844918</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>386.9759942927801</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>457.8809012312519</v>
+        <v>974.5621324127817</v>
       </c>
       <c r="C32" t="n">
-        <v>457.8809012312519</v>
+        <v>974.5621324127817</v>
       </c>
       <c r="D32" t="n">
-        <v>457.8809012312519</v>
+        <v>974.5621324127817</v>
       </c>
       <c r="E32" t="n">
-        <v>457.8809012312519</v>
+        <v>588.7738798145374</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>177.7879750249298</v>
       </c>
       <c r="G32" t="n">
         <v>46.89499644164432</v>
@@ -6706,7 +6706,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376119</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2291.91737414595</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2291.91737414595</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>2291.91737414595</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U32" t="n">
-        <v>2291.91737414595</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V32" t="n">
-        <v>1960.854486802379</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W32" t="n">
-        <v>1608.085831532265</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X32" t="n">
-        <v>1234.620073271185</v>
+        <v>1751.301304452715</v>
       </c>
       <c r="Y32" t="n">
-        <v>844.4807412953737</v>
+        <v>1361.161972476903</v>
       </c>
     </row>
     <row r="33">
@@ -6782,7 +6782,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076319</v>
+        <v>261.2565324477667</v>
       </c>
       <c r="L33" t="n">
         <v>491.2196383161158</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G34" t="n">
         <v>46.89499644164432</v>
@@ -6882,28 +6882,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>484.3834020790538</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>267.6875755851744</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>267.6875755851744</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>267.6875755851744</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>267.6875755851744</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>267.6875755851744</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X34" t="n">
-        <v>267.6875755851744</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>774.1232119888066</v>
+        <v>1332.730790215131</v>
       </c>
       <c r="C35" t="n">
-        <v>405.1606950483948</v>
+        <v>1332.730790215131</v>
       </c>
       <c r="D35" t="n">
-        <v>46.89499644164432</v>
+        <v>974.4650916083808</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>588.6768390101365</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>588.6768390101365</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4050714930214</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4050714930214</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6943,7 +6943,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U35" t="n">
-        <v>2221.559844839383</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V35" t="n">
-        <v>1890.496957495812</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W35" t="n">
-        <v>1537.728302225698</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X35" t="n">
-        <v>1164.262543964618</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="Y35" t="n">
-        <v>774.1232119888066</v>
+        <v>1719.330630279253</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>917.728611972203</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C36" t="n">
-        <v>743.275582691076</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D36" t="n">
-        <v>594.3411730298247</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E36" t="n">
-        <v>435.1037180243692</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F36" t="n">
-        <v>288.5691600512542</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G36" t="n">
         <v>221.6448824165167</v>
@@ -7016,25 +7016,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>172.2525564994817</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>541.8037716079657</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.03183067514</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1536.756511963314</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O36" t="n">
-        <v>1938.46894355964</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P36" t="n">
-        <v>2243.875517831853</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7043,25 +7043,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2183.516266982771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>1983.973569036802</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U36" t="n">
-        <v>1755.793104690959</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V36" t="n">
-        <v>1755.793104690959</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W36" t="n">
-        <v>1501.555747962758</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X36" t="n">
-        <v>1293.704247757225</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y36" t="n">
-        <v>1085.943948992271</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2344.749822082216</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="C37" t="n">
-        <v>2344.749822082216</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="D37" t="n">
-        <v>2194.633182669881</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="E37" t="n">
-        <v>2046.720089087487</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="F37" t="n">
-        <v>1899.830141589577</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>602.9079212136362</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>602.9079212136362</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>602.9079212136362</v>
       </c>
       <c r="T37" t="n">
-        <v>2344.749822082216</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="U37" t="n">
-        <v>2344.749822082216</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="V37" t="n">
-        <v>2344.749822082216</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="W37" t="n">
-        <v>2344.749822082216</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="X37" t="n">
-        <v>2344.749822082216</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="Y37" t="n">
-        <v>2344.749822082216</v>
+        <v>375.0094993717216</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1550.266142823374</v>
+        <v>1623.547602762834</v>
       </c>
       <c r="C38" t="n">
-        <v>1181.303625882962</v>
+        <v>1623.547602762834</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.303625882962</v>
+        <v>1265.281904156083</v>
       </c>
       <c r="E38" t="n">
-        <v>795.5153732847182</v>
+        <v>879.493651557839</v>
       </c>
       <c r="F38" t="n">
-        <v>795.5153732847182</v>
+        <v>468.5077467682315</v>
       </c>
       <c r="G38" t="n">
-        <v>377.243605767603</v>
+        <v>468.5077467682315</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1550.266142823374</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W38" t="n">
-        <v>1550.266142823374</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="X38" t="n">
-        <v>1550.266142823374</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="Y38" t="n">
-        <v>1550.266142823374</v>
+        <v>1623.547602762834</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>634.431910393309</v>
       </c>
       <c r="E39" t="n">
-        <v>139.5078710072816</v>
+        <v>475.1944553878535</v>
       </c>
       <c r="F39" t="n">
-        <v>139.5078710072816</v>
+        <v>328.6598974147385</v>
       </c>
       <c r="G39" t="n">
-        <v>139.5078710072816</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6684232076319</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L39" t="n">
         <v>491.2196383161158</v>
@@ -7280,25 +7280,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="C40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="D40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="E40" t="n">
-        <v>195.7305522826212</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F40" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
         <v>46.89499644164432</v>
@@ -7353,31 +7353,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>412.4263787765005</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S40" t="n">
-        <v>195.7305522826212</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="U40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="V40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="W40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="X40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="Y40" t="n">
-        <v>195.7305522826212</v>
+        <v>341.6980375219478</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1958.149982018095</v>
+        <v>1403.564843394412</v>
       </c>
       <c r="C41" t="n">
-        <v>1589.187465077683</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.921766470932</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E41" t="n">
-        <v>845.1335138726881</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F41" t="n">
-        <v>845.1335138726881</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
-        <v>426.861746355573</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>96.51313702961426</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7441,22 +7441,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.749822082216</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.749822082216</v>
+        <v>1793.704175370224</v>
       </c>
       <c r="Y41" t="n">
-        <v>2344.749822082216</v>
+        <v>1403.564843394412</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>829.9842651606482</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>655.5312358795212</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>506.5968262182699</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072816</v>
+        <v>347.3593712128144</v>
       </c>
       <c r="F42" t="n">
-        <v>46.89499644164432</v>
+        <v>200.8248132396994</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>62.74992737239145</v>
       </c>
       <c r="H42" t="n">
         <v>46.89499644164432</v>
@@ -7493,22 +7493,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7532,10 +7532,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1996021807163</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>493.244663817042</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
         <v>46.89499644164432</v>
@@ -7602,19 +7602,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W43" t="n">
-        <v>607.7685734363102</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y43" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1020.532017289277</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C44" t="n">
-        <v>1020.532017289277</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="D44" t="n">
-        <v>1020.532017289277</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E44" t="n">
-        <v>1020.532017289277</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7651,13 +7651,13 @@
         <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U44" t="n">
-        <v>2090.963399967084</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V44" t="n">
-        <v>1759.900512623513</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W44" t="n">
-        <v>1407.131857353399</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X44" t="n">
-        <v>1407.131857353399</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y44" t="n">
-        <v>1407.131857353399</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>622.1327649551154</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>622.1327649551154</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
         <v>506.2543262569397</v>
@@ -7727,25 +7727,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7754,25 +7754,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.89499644164432</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="E46" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G46" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -7830,28 +7830,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>491.4892447774382</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>46.89499644164432</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="V46" t="n">
-        <v>46.89499644164432</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="W46" t="n">
-        <v>46.89499644164432</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="X46" t="n">
-        <v>46.89499644164432</v>
+        <v>353.7846527006242</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.89499644164432</v>
+        <v>353.7846527006242</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.3367453265217</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>138.7054404458478</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>19.10048672639638</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -23436,7 +23436,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>134.1865313270969</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>67.63801391640129</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>40.5954638074877</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.01270558407239</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>98.49313167493756</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>37.69782020388197</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>69.14415845627981</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.3002969709552</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>23.54341993217059</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>54.88106519919022</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23943,13 +23943,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>356.3079798159956</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>111.8443466578769</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
@@ -24068,7 +24068,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>52.13028572634454</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>37.69782020388202</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>379.9499320443351</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>91.06271188526779</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24262,19 +24262,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>76.57988169550505</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>82.23638579761639</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>84.86535096970387</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24414,7 +24414,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>93.70338521697221</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>93.57597854304831</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>37.65467069181017</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,10 +24651,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>64.80566257519575</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>132.6508531621855</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>123.4769889834715</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>66.72206926975377</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>111.384007536242</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24815,13 +24815,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>137.1803309947773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>133.5742180510833</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24894,19 +24894,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>269.6851342372358</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>284.5050010444913</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>21.32568618315743</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>52.6522033139492</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25122,10 +25122,10 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>30.66303593248143</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>41.41022124884392</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>129.2904804235763</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>6.924332742584681</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>70.43910215024474</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>52.6522033139487</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>35.762371436599</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25365,7 +25365,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>73.33369595908502</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>265.2378770460648</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>30.74927216039538</v>
       </c>
       <c r="H39" t="n">
-        <v>14.27705323942853</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
@@ -25569,10 +25569,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>46.59991698252628</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>115.0239626444419</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>225.0652089436848</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>114.563236367617</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>90.26741743796977</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571424</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>33.05529212349363</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25842,16 +25842,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>243.2571463024451</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>98.74872493911141</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>347.7947637269053</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
@@ -25921,19 +25921,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>42.92542614420709</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>203.4577711487112</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26070,16 +26070,16 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R46" t="n">
-        <v>37.69782020388202</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>34.84525227320694</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608065.0294576953</v>
+        <v>608065.0294576954</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608065.0294576953</v>
+        <v>608065.0294576952</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608065.0294576954</v>
+        <v>608065.0294576953</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608065.0294576952</v>
+        <v>608065.0294576953</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608065.0294576954</v>
+        <v>608065.0294576955</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608065.0294576958</v>
+        <v>608065.0294576953</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26322,31 +26322,31 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="F2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="G2" t="n">
         <v>317251.3197170584</v>
       </c>
-      <c r="F2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>317251.3197170583</v>
+      </c>
+      <c r="I2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="J2" t="n">
         <v>317251.3197170586</v>
       </c>
-      <c r="H2" t="n">
-        <v>317251.3197170586</v>
-      </c>
-      <c r="I2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="J2" t="n">
-        <v>317251.3197170584</v>
-      </c>
       <c r="K2" t="n">
-        <v>317251.3197170583</v>
+        <v>317251.3197170585</v>
       </c>
       <c r="L2" t="n">
         <v>317251.3197170584</v>
       </c>
       <c r="M2" t="n">
-        <v>317251.3197170584</v>
+        <v>317251.3197170585</v>
       </c>
       <c r="N2" t="n">
         <v>317251.3197170584</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
         <v>445.150385721245</v>
@@ -26435,7 +26435,7 @@
         <v>445.150385721245</v>
       </c>
       <c r="H4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="I4" t="n">
         <v>445.150385721245</v>
@@ -26444,7 +26444,7 @@
         <v>445.150385721245</v>
       </c>
       <c r="K4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="L4" t="n">
         <v>445.150385721245</v>
@@ -26524,46 +26524,46 @@
         <v>84449.30149109714</v>
       </c>
       <c r="C6" t="n">
-        <v>165218.7330226449</v>
+        <v>165218.733022645</v>
       </c>
       <c r="D6" t="n">
         <v>165218.7330226449</v>
       </c>
       <c r="E6" t="n">
-        <v>-71027.89557306204</v>
+        <v>-78335.1348314583</v>
       </c>
       <c r="F6" t="n">
-        <v>274584.4472058907</v>
+        <v>267277.2079474944</v>
       </c>
       <c r="G6" t="n">
-        <v>274584.4472058908</v>
+        <v>267277.2079474943</v>
       </c>
       <c r="H6" t="n">
-        <v>274584.4472058908</v>
+        <v>267277.2079474942</v>
       </c>
       <c r="I6" t="n">
-        <v>274584.4472058907</v>
+        <v>267277.2079474944</v>
       </c>
       <c r="J6" t="n">
-        <v>211524.5046067844</v>
+        <v>204217.2653483883</v>
       </c>
       <c r="K6" t="n">
-        <v>274584.4472058905</v>
+        <v>267277.2079474944</v>
       </c>
       <c r="L6" t="n">
-        <v>274584.4472058906</v>
+        <v>267277.2079474943</v>
       </c>
       <c r="M6" t="n">
-        <v>188565.9133858146</v>
+        <v>181258.6741274184</v>
       </c>
       <c r="N6" t="n">
-        <v>274584.4472058907</v>
+        <v>267277.2079474943</v>
       </c>
       <c r="O6" t="n">
-        <v>274584.4472058906</v>
+        <v>267277.2079474943</v>
       </c>
       <c r="P6" t="n">
-        <v>274584.4472058906</v>
+        <v>267277.2079474943</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>153.3897489848012</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>188.2035961704751</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>159.5453390766226</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>60.59236530492268</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>209.8933976134044</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>169.5702675696171</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2071534981698733</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>19.77307050781977</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>37.69799725872717</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,7 +27855,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,16 +27909,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>315.6407353259894</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>131.8725095025868</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>63.26033333140008</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>133.416483154574</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31840,13 +31840,13 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>138.0306725869553</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31861,7 +31861,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -32077,7 +32077,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32086,7 +32086,7 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>91.47518954049946</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
@@ -32098,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32314,7 +32314,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32326,10 +32326,10 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
-        <v>168.8929552025813</v>
+        <v>167.4412749915738</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>7.329566448838932</v>
+        <v>89.90300600836866</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,13 +32788,13 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>101.8932366165283</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L24" t="n">
-        <v>140.9980901415503</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>164.5381207449218</v>
@@ -32809,7 +32809,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>67.93515893712788</v>
       </c>
       <c r="R24" t="n">
         <v>40.31853275515171</v>
@@ -33028,7 +33028,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K27" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>140.9980901415503</v>
@@ -33043,10 +33043,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
-        <v>124.0031279382449</v>
+        <v>95.19525841665677</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>40.31853275515171</v>
@@ -33268,16 +33268,16 @@
         <v>104.8606541711232</v>
       </c>
       <c r="L30" t="n">
-        <v>140.9980901415503</v>
+        <v>77.42508009866651</v>
       </c>
       <c r="M30" t="n">
         <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
-        <v>106.835682503285</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P30" t="n">
         <v>124.0031279382449</v>
@@ -33502,10 +33502,10 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K33" t="n">
-        <v>104.8606541711232</v>
+        <v>29.2974135200798</v>
       </c>
       <c r="L33" t="n">
-        <v>140.9980901415503</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>164.5381207449218</v>
@@ -33739,7 +33739,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L36" t="n">
         <v>140.9980901415503</v>
@@ -33754,10 +33754,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P36" t="n">
-        <v>124.0031279382449</v>
+        <v>60.43011789536098</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.79772296670062</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>40.31853275515171</v>
@@ -33973,13 +33973,13 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>140.9980901415503</v>
+        <v>89.90300600836866</v>
       </c>
       <c r="M39" t="n">
         <v>164.5381207449218</v>
@@ -34219,7 +34219,7 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>100.965110702038</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
@@ -34231,7 +34231,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>40.31853275515172</v>
@@ -34447,13 +34447,13 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J45" t="n">
-        <v>61.3521838145467</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L45" t="n">
-        <v>140.9980901415503</v>
+        <v>138.0306725869553</v>
       </c>
       <c r="M45" t="n">
         <v>164.5381207449219</v>
@@ -34468,7 +34468,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.89280709988242</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>40.31853275515172</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
         <v>405.7701329255822</v>
@@ -35509,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
@@ -35734,10 +35734,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
-        <v>488.1091505729034</v>
+        <v>415.046219368481</v>
       </c>
       <c r="N15" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
@@ -35746,7 +35746,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35974,10 +35974,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>515.441937251794</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>239.6155319724239</v>
+        <v>322.1889715319537</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36214,13 +36214,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2840556651353</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>488.1091505729034</v>
@@ -36457,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>138.0306725869555</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M27" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
         <v>516.8936174628016</v>
@@ -36691,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>279.6836196422637</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>309.7110456222515</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>358.1017573355701</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>14.92312141674913</v>
+        <v>155.9212115582994</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2840556651353</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37402,10 +37402,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q36" t="n">
-        <v>101.8932366165282</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>14.92312141674913</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2840556651353</v>
+        <v>322.1889715319537</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
@@ -37861,13 +37861,13 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>424.5361405300196</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -37879,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848623</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
@@ -38037,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M45" t="n">
         <v>488.1091505729034</v>
@@ -38116,7 +38116,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
